--- a/layout_schematics_bom/Relay_bom.xlsx
+++ b/layout_schematics_bom/Relay_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61310E95-4B74-4039-9091-2CE2FD61B7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E027086-DE12-4E19-8D67-13F976B3095B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="744" yWindow="2928" windowWidth="11628" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RELAY_BOARD" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,9 @@
     <t>Phoenix Contact</t>
   </si>
   <si>
+    <t>Headers &amp; Wire Housings 06 MODII HDR SRST B/A .100CL</t>
+  </si>
+  <si>
     <t>Fixed Terminal Blocks TERMI-BLOK PCB MOUNT, 90 4P.</t>
   </si>
   <si>
@@ -247,20 +250,37 @@
     <t>Headers &amp; Wire Housings UNSHRD VERT SNGL 20 female</t>
   </si>
   <si>
-    <t>(female)2-87224-0</t>
-  </si>
-  <si>
-    <t>Headers &amp; Wire Housings 06 MODII HDR SRST B/A .100CL female</t>
-  </si>
-  <si>
-    <t>4-103327-6 (female)</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PPTC201LFBN-RC</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PPTC061LFBN-RC
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +447,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -795,7 +822,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,6 +883,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,13 +1400,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>75</v>
+      <c r="G7" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>20</v>
@@ -1442,12 +1472,12 @@
         <v>25</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="18" t="s">
         <v>77</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1468,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -1494,7 +1524,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>34</v>
@@ -1572,13 +1602,13 @@
         <v>49</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2">
         <v>603</v>
@@ -1598,13 +1628,13 @@
         <v>51</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2">
         <v>603</v>
@@ -1647,16 +1677,16 @@
         <v>58</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>60</v>
@@ -1668,6 +1698,6 @@
     <hyperlink ref="F9" r:id="rId2" display="https://www.mouser.in/manufacturer/phoenix-contact/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>